--- a/새하 오민.xlsx
+++ b/새하 오민.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skku0-my.sharepoint.com/personal/k0712023_skku_edu/Documents/바탕 화면/SKKU/S hero/workspace/Cyber_Tech_Friend Freelancer/Mold Controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_87B3FBCBEF94B5B3ADC5EE85377BAFD8EFB52108" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D3DEF3CA-4B2E-4B4C-8E46-7AB189932E9A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="103">
   <si>
     <t>PUB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,47 +164,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4ch_bypass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ch_press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ch_topLPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_botLPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ch_botTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_topTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_botTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_topTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ch_purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_bypass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ch_botLPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_botLPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_topLPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_botLPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_topLPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_topLPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ch_topTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_botTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_topTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_botTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopMoldTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BotMoldTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto / manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_bypass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ch_reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ch_purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2ch_reverse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2ch_purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_bypass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4ch_bypass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3ch_reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3ch_purge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4ch_reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4ch_purge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1ch_press</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ch_topLPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_botLPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ch_botTEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_topTEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_botTEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_topTEMP</t>
+    <t>2ch_bypass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ch_reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ch_purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ch_bypass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,11 +376,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1ch_purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_purge</t>
+    <t>2ch_reverse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,194 +384,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3ch_bypass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4ch_flow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4ch_bypass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3ch_reverse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4ch_reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ch_botLPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_press</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_botLPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_topLPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_press</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_botLPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_topLPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_press</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_topLPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ch_topTEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_botTEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_topTEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_botTEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopMoldTemp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BotMoldTemp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto / manual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_bypass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ch_reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ch_purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_bypass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_bypass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_bypass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_bypass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ch_reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ch_reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ch_bypass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ch_reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-&gt; 버튼, 그림, LED…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,13 +405,33 @@
   </si>
   <si>
     <t>(true/false 또는 0/1 -- 0=on/1=off)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동일때 시간값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널별 전체 all stop 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,12 +449,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -466,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,13 +491,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,16 +893,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P107" sqref="P107"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -881,7 +910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -889,12 +918,12 @@
         <v>21</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -904,10 +933,10 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5"/>
       <c r="G3" t="s">
         <v>4</v>
       </c>
@@ -920,12 +949,12 @@
       <c r="S3" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -935,10 +964,10 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>4</v>
       </c>
@@ -951,12 +980,12 @@
       <c r="S4" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -966,10 +995,10 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="5"/>
       <c r="G5" t="s">
         <v>4</v>
       </c>
@@ -982,12 +1011,12 @@
       <c r="S5" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -997,10 +1026,10 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="5"/>
       <c r="G6" t="s">
         <v>4</v>
       </c>
@@ -1013,43 +1042,18 @@
       <c r="S6" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -1059,10 +1063,10 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" t="s">
         <v>4</v>
       </c>
@@ -1075,43 +1079,18 @@
       <c r="S8" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="T8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1121,10 +1100,10 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -1137,12 +1116,12 @@
       <c r="S10" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="T10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1152,10 +1131,10 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" t="s">
         <v>4</v>
       </c>
@@ -1168,12 +1147,12 @@
       <c r="S11" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="T11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -1183,10 +1162,10 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" t="s">
         <v>4</v>
       </c>
@@ -1199,12 +1178,12 @@
       <c r="S12" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="T12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1214,10 +1193,10 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="5"/>
       <c r="G13" t="s">
         <v>4</v>
       </c>
@@ -1230,12 +1209,12 @@
       <c r="S13" t="s">
         <v>3</v>
       </c>
-      <c r="T13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="T13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1245,10 +1224,10 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" t="s">
         <v>4</v>
       </c>
@@ -1261,43 +1240,18 @@
       <c r="S14" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" t="s">
-        <v>2</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="T14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -1307,10 +1261,10 @@
       <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" t="s">
         <v>4</v>
       </c>
@@ -1323,43 +1277,18 @@
       <c r="S16" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="T16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1369,10 +1298,10 @@
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5"/>
       <c r="G18" t="s">
         <v>4</v>
       </c>
@@ -1385,22 +1314,27 @@
       <c r="S18" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="T18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5"/>
       <c r="F20" t="s">
         <v>15</v>
       </c>
@@ -1410,25 +1344,25 @@
       <c r="R20" t="s">
         <v>13</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T20" s="3"/>
+      <c r="S20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="2"/>
       <c r="U20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5"/>
       <c r="F21" t="s">
         <v>16</v>
       </c>
@@ -1438,25 +1372,25 @@
       <c r="R21" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T21" s="3"/>
+      <c r="S21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="2"/>
       <c r="U21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" t="s">
         <v>17</v>
       </c>
@@ -1466,25 +1400,25 @@
       <c r="R22" t="s">
         <v>13</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T22" s="3"/>
+      <c r="S22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" s="2"/>
       <c r="U22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" t="s">
         <v>18</v>
       </c>
@@ -1494,25 +1428,25 @@
       <c r="R23" t="s">
         <v>13</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T23" s="3"/>
+      <c r="S23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" s="2"/>
       <c r="U23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="D24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" t="s">
         <v>19</v>
       </c>
@@ -1522,25 +1456,25 @@
       <c r="R24" t="s">
         <v>13</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T24" s="3"/>
+      <c r="S24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T24" s="2"/>
       <c r="U24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5"/>
       <c r="F25" t="s">
         <v>20</v>
       </c>
@@ -1550,25 +1484,25 @@
       <c r="R25" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T25" s="3"/>
+      <c r="S25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T25" s="2"/>
       <c r="U25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" t="s">
         <v>15</v>
       </c>
@@ -1578,25 +1512,25 @@
       <c r="R26" t="s">
         <v>13</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T26" s="3"/>
+      <c r="S26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" s="2"/>
       <c r="U26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="3"/>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="5"/>
       <c r="F27" t="s">
         <v>16</v>
       </c>
@@ -1606,25 +1540,25 @@
       <c r="R27" t="s">
         <v>13</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T27" s="3"/>
+      <c r="S27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" s="2"/>
       <c r="U27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="3"/>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="F28" t="s">
         <v>17</v>
       </c>
@@ -1634,25 +1568,25 @@
       <c r="R28" t="s">
         <v>13</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T28" s="3"/>
+      <c r="S28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="2"/>
       <c r="U28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="3"/>
+      <c r="D29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" t="s">
         <v>18</v>
       </c>
@@ -1662,25 +1596,25 @@
       <c r="R29" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T29" s="3"/>
+      <c r="S29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T29" s="2"/>
       <c r="U29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="3"/>
+      <c r="D30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" t="s">
         <v>19</v>
       </c>
@@ -1690,25 +1624,25 @@
       <c r="R30" t="s">
         <v>13</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="3"/>
+      <c r="S30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" s="2"/>
       <c r="U30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="3"/>
+      <c r="D31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="5"/>
       <c r="F31" t="s">
         <v>20</v>
       </c>
@@ -1718,307 +1652,315 @@
       <c r="R31" t="s">
         <v>13</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T31" s="3"/>
+      <c r="S31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T31" s="2"/>
       <c r="U31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="2"/>
+      <c r="E34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="Q34" t="s">
         <v>10</v>
       </c>
       <c r="R34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S34" t="s">
         <v>14</v>
       </c>
-      <c r="T34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="2"/>
+      <c r="E35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="Q35" t="s">
         <v>10</v>
       </c>
       <c r="R35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S35" t="s">
         <v>14</v>
       </c>
-      <c r="T35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="2"/>
+      <c r="E36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="6"/>
       <c r="Q36" t="s">
         <v>10</v>
       </c>
       <c r="R36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S36" t="s">
         <v>14</v>
       </c>
-      <c r="T36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="2"/>
+      <c r="E37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="6"/>
       <c r="Q37" t="s">
         <v>10</v>
       </c>
       <c r="R37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S37" t="s">
         <v>14</v>
       </c>
-      <c r="T37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="2"/>
+      <c r="E38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="6"/>
       <c r="Q38" t="s">
         <v>12</v>
       </c>
       <c r="R38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S38" t="s">
         <v>14</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U38" s="2"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="2"/>
+      <c r="E39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="6"/>
       <c r="Q39" t="s">
         <v>12</v>
       </c>
       <c r="R39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S39" t="s">
         <v>14</v>
       </c>
-      <c r="T39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U39" s="2"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="2"/>
+      <c r="E40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="6"/>
       <c r="Q40" t="s">
         <v>12</v>
       </c>
       <c r="R40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S40" t="s">
         <v>14</v>
       </c>
-      <c r="T40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U40" s="2"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="E41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="6"/>
       <c r="Q41" t="s">
         <v>12</v>
       </c>
       <c r="R41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S41" t="s">
         <v>14</v>
       </c>
-      <c r="T41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U41" s="2"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="2"/>
+      <c r="E42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="6"/>
       <c r="Q42" t="s">
         <v>12</v>
       </c>
       <c r="R42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S42" t="s">
         <v>14</v>
       </c>
-      <c r="T42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="2"/>
+      <c r="E43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="Q43" t="s">
         <v>12</v>
       </c>
       <c r="R43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S43" t="s">
         <v>14</v>
       </c>
-      <c r="T43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="U43" s="2"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="T43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="E45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="Q45" t="s">
         <v>31</v>
       </c>
@@ -2026,20 +1968,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="7"/>
       <c r="G47" t="s">
         <v>23</v>
       </c>
@@ -2052,30 +1994,33 @@
       <c r="S47" t="s">
         <v>22</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U47" s="3"/>
+      <c r="U47" s="2"/>
       <c r="V47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="7"/>
       <c r="G48" t="s">
         <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>99</v>
       </c>
       <c r="Q48" t="s">
         <v>10</v>
@@ -2086,28 +2031,28 @@
       <c r="S48" t="s">
         <v>22</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="T48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U48" s="3"/>
+      <c r="U48" s="2"/>
       <c r="V48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" s="3"/>
+      <c r="E49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="7"/>
       <c r="G49" t="s">
         <v>23</v>
       </c>
@@ -2120,28 +2065,28 @@
       <c r="S49" t="s">
         <v>22</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U49" s="3"/>
+      <c r="T49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U49" s="2"/>
       <c r="V49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="3"/>
+      <c r="E50" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="7"/>
       <c r="G50" t="s">
         <v>23</v>
       </c>
@@ -2154,28 +2099,28 @@
       <c r="S50" t="s">
         <v>22</v>
       </c>
-      <c r="T50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U50" s="3"/>
+      <c r="T50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U50" s="2"/>
       <c r="V50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="3"/>
+      <c r="E51" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="7"/>
       <c r="G51" t="s">
         <v>23</v>
       </c>
@@ -2188,28 +2133,28 @@
       <c r="S51" t="s">
         <v>22</v>
       </c>
-      <c r="T51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U51" s="3"/>
+      <c r="T51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U51" s="2"/>
       <c r="V51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="3"/>
+      <c r="E52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="7"/>
       <c r="G52" t="s">
         <v>23</v>
       </c>
@@ -2222,28 +2167,28 @@
       <c r="S52" t="s">
         <v>22</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="U52" s="3"/>
+      <c r="T52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U52" s="2"/>
       <c r="V52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="3"/>
+      <c r="E53" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="7"/>
       <c r="G53" t="s">
         <v>23</v>
       </c>
@@ -2256,28 +2201,28 @@
       <c r="S53" t="s">
         <v>22</v>
       </c>
-      <c r="T53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U53" s="3"/>
+      <c r="T53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U53" s="2"/>
       <c r="V53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="3"/>
+      <c r="E54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="7"/>
       <c r="G54" t="s">
         <v>23</v>
       </c>
@@ -2290,28 +2235,28 @@
       <c r="S54" t="s">
         <v>22</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="U54" s="3"/>
+      <c r="T54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U54" s="2"/>
       <c r="V54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="3"/>
+      <c r="E55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="7"/>
       <c r="G55" t="s">
         <v>23</v>
       </c>
@@ -2324,28 +2269,28 @@
       <c r="S55" t="s">
         <v>22</v>
       </c>
-      <c r="T55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U55" s="3"/>
+      <c r="T55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U55" s="2"/>
       <c r="V55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="3"/>
+      <c r="E56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="7"/>
       <c r="G56" t="s">
         <v>23</v>
       </c>
@@ -2358,28 +2303,28 @@
       <c r="S56" t="s">
         <v>22</v>
       </c>
-      <c r="T56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U56" s="3"/>
+      <c r="T56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U56" s="2"/>
       <c r="V56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="3"/>
+      <c r="E57" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="7"/>
       <c r="G57" t="s">
         <v>23</v>
       </c>
@@ -2392,28 +2337,28 @@
       <c r="S57" t="s">
         <v>22</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U57" s="3"/>
+      <c r="T57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U57" s="2"/>
       <c r="V57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="3"/>
+      <c r="E58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="7"/>
       <c r="G58" t="s">
         <v>23</v>
       </c>
@@ -2426,28 +2371,28 @@
       <c r="S58" t="s">
         <v>22</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="U58" s="3"/>
+      <c r="T58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U58" s="2"/>
       <c r="V58" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="3"/>
+      <c r="E59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="7"/>
       <c r="G59" t="s">
         <v>23</v>
       </c>
@@ -2460,28 +2405,28 @@
       <c r="S59" t="s">
         <v>22</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U59" s="3"/>
+      <c r="T59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U59" s="2"/>
       <c r="V59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" s="3"/>
+      <c r="E60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="7"/>
       <c r="G60" t="s">
         <v>23</v>
       </c>
@@ -2494,28 +2439,28 @@
       <c r="S60" t="s">
         <v>22</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U60" s="3"/>
+      <c r="T60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U60" s="2"/>
       <c r="V60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="3"/>
+      <c r="E61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="7"/>
       <c r="G61" t="s">
         <v>23</v>
       </c>
@@ -2528,28 +2473,28 @@
       <c r="S61" t="s">
         <v>22</v>
       </c>
-      <c r="T61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="U61" s="3"/>
+      <c r="T61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U61" s="2"/>
       <c r="V61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F62" s="3"/>
+      <c r="E62" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="7"/>
       <c r="G62" t="s">
         <v>23</v>
       </c>
@@ -2562,30 +2507,30 @@
       <c r="S62" t="s">
         <v>22</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U62" s="3"/>
+      <c r="T62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U62" s="2"/>
       <c r="V62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>10</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" t="s">
-        <v>23</v>
+      <c r="F64" s="7"/>
+      <c r="I64" t="s">
+        <v>100</v>
       </c>
       <c r="Q64" t="s">
         <v>10</v>
@@ -2596,31 +2541,28 @@
       <c r="S64" t="s">
         <v>25</v>
       </c>
-      <c r="T64" s="3" t="s">
+      <c r="T64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U64" s="3"/>
+      <c r="U64" s="2"/>
       <c r="V64" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="Q65" t="s">
         <v>10</v>
       </c>
@@ -2630,31 +2572,28 @@
       <c r="S65" t="s">
         <v>25</v>
       </c>
-      <c r="T65" s="3" t="s">
+      <c r="T65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U65" s="3"/>
+      <c r="U65" s="2"/>
       <c r="V65" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
+      <c r="E66" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="7"/>
       <c r="Q66" t="s">
         <v>10</v>
       </c>
@@ -2664,31 +2603,28 @@
       <c r="S66" t="s">
         <v>25</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U66" s="3"/>
+      <c r="T66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U66" s="2"/>
       <c r="V66" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+      <c r="E67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="7"/>
       <c r="Q67" t="s">
         <v>10</v>
       </c>
@@ -2698,31 +2634,28 @@
       <c r="S67" t="s">
         <v>25</v>
       </c>
-      <c r="T67" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="U67" s="3"/>
+      <c r="T67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U67" s="2"/>
       <c r="V67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>10</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
+      <c r="E68" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="7"/>
       <c r="Q68" t="s">
         <v>10</v>
       </c>
@@ -2732,31 +2665,28 @@
       <c r="S68" t="s">
         <v>25</v>
       </c>
-      <c r="T68" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U68" s="3"/>
+      <c r="T68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U68" s="2"/>
       <c r="V68" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+      <c r="E69" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="7"/>
       <c r="Q69" t="s">
         <v>10</v>
       </c>
@@ -2766,31 +2696,28 @@
       <c r="S69" t="s">
         <v>25</v>
       </c>
-      <c r="T69" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="U69" s="3"/>
+      <c r="T69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U69" s="2"/>
       <c r="V69" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
+      <c r="E70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="7"/>
       <c r="Q70" t="s">
         <v>10</v>
       </c>
@@ -2800,31 +2727,28 @@
       <c r="S70" t="s">
         <v>25</v>
       </c>
-      <c r="T70" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U70" s="3"/>
+      <c r="T70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U70" s="2"/>
       <c r="V70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+      <c r="E71" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="7"/>
       <c r="Q71" t="s">
         <v>10</v>
       </c>
@@ -2834,31 +2758,28 @@
       <c r="S71" t="s">
         <v>25</v>
       </c>
-      <c r="T71" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U71" s="3"/>
+      <c r="T71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U71" s="2"/>
       <c r="V71" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
+      <c r="E72" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="7"/>
       <c r="Q72" t="s">
         <v>12</v>
       </c>
@@ -2868,31 +2789,28 @@
       <c r="S72" t="s">
         <v>25</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U72" s="3"/>
+      <c r="T72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U72" s="2"/>
       <c r="V72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F73" s="3"/>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+      <c r="E73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" s="7"/>
       <c r="Q73" t="s">
         <v>12</v>
       </c>
@@ -2902,31 +2820,28 @@
       <c r="S73" t="s">
         <v>25</v>
       </c>
-      <c r="T73" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U73" s="3"/>
+      <c r="T73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U73" s="2"/>
       <c r="V73" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
+      <c r="E74" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="7"/>
       <c r="Q74" t="s">
         <v>11</v>
       </c>
@@ -2936,31 +2851,28 @@
       <c r="S74" t="s">
         <v>25</v>
       </c>
-      <c r="T74" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="U74" s="3"/>
+      <c r="T74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U74" s="2"/>
       <c r="V74" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+      <c r="E75" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="7"/>
       <c r="Q75" t="s">
         <v>11</v>
       </c>
@@ -2970,31 +2882,28 @@
       <c r="S75" t="s">
         <v>25</v>
       </c>
-      <c r="T75" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="U75" s="3"/>
+      <c r="T75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U75" s="2"/>
       <c r="V75" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>11</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
+      <c r="E76" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="7"/>
       <c r="Q76" t="s">
         <v>11</v>
       </c>
@@ -3004,31 +2913,28 @@
       <c r="S76" t="s">
         <v>25</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="U76" s="3"/>
+      <c r="T76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U76" s="2"/>
       <c r="V76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>11</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+      <c r="E77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="7"/>
       <c r="Q77" t="s">
         <v>11</v>
       </c>
@@ -3038,31 +2944,28 @@
       <c r="S77" t="s">
         <v>25</v>
       </c>
-      <c r="T77" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U77" s="3"/>
+      <c r="T77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U77" s="2"/>
       <c r="V77" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+      <c r="E78" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" s="7"/>
       <c r="Q78" t="s">
         <v>11</v>
       </c>
@@ -3072,31 +2975,28 @@
       <c r="S78" t="s">
         <v>25</v>
       </c>
-      <c r="T78" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="U78" s="3"/>
+      <c r="T78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U78" s="2"/>
       <c r="V78" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>11</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+      <c r="E79" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" s="7"/>
       <c r="Q79" t="s">
         <v>11</v>
       </c>
@@ -3106,507 +3006,462 @@
       <c r="S79" t="s">
         <v>25</v>
       </c>
-      <c r="T79" s="3" t="s">
+      <c r="T79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U79" s="2"/>
+      <c r="V79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="Q81" t="s">
+        <v>10</v>
+      </c>
+      <c r="R81" t="s">
+        <v>2</v>
+      </c>
+      <c r="S81" t="s">
+        <v>67</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U81" s="2"/>
+      <c r="V81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="Q82" t="s">
+        <v>10</v>
+      </c>
+      <c r="R82" t="s">
+        <v>2</v>
+      </c>
+      <c r="S82" t="s">
+        <v>67</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U82" s="2"/>
+      <c r="V82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="Q83" t="s">
+        <v>10</v>
+      </c>
+      <c r="R83" t="s">
+        <v>2</v>
+      </c>
+      <c r="S83" t="s">
+        <v>67</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U83" s="2"/>
+      <c r="V83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="Q84" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" t="s">
+        <v>2</v>
+      </c>
+      <c r="S84" t="s">
+        <v>67</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U84" s="2"/>
+      <c r="V84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="Q85" t="s">
+        <v>10</v>
+      </c>
+      <c r="R85" t="s">
+        <v>2</v>
+      </c>
+      <c r="S85" t="s">
+        <v>67</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U85" s="2"/>
+      <c r="V85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="Q86" t="s">
+        <v>10</v>
+      </c>
+      <c r="R86" t="s">
+        <v>2</v>
+      </c>
+      <c r="S86" t="s">
+        <v>67</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U86" s="2"/>
+      <c r="V86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="Q87" t="s">
+        <v>10</v>
+      </c>
+      <c r="R87" t="s">
+        <v>2</v>
+      </c>
+      <c r="S87" t="s">
+        <v>67</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U87" s="2"/>
+      <c r="V87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="Q88" t="s">
+        <v>10</v>
+      </c>
+      <c r="R88" t="s">
+        <v>2</v>
+      </c>
+      <c r="S88" t="s">
+        <v>67</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U88" s="2"/>
+      <c r="V88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="U79" s="3"/>
-      <c r="V79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>10</v>
-      </c>
-      <c r="R81" t="s">
-        <v>2</v>
-      </c>
-      <c r="S81" t="s">
-        <v>71</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U81" s="3"/>
-      <c r="V81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>71</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>10</v>
-      </c>
-      <c r="R82" t="s">
-        <v>2</v>
-      </c>
-      <c r="S82" t="s">
-        <v>71</v>
-      </c>
-      <c r="T82" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U82" s="3"/>
-      <c r="V82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s">
-        <v>71</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>10</v>
-      </c>
-      <c r="R83" t="s">
-        <v>2</v>
-      </c>
-      <c r="S83" t="s">
-        <v>71</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U83" s="3"/>
-      <c r="V83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="F89" s="7"/>
+      <c r="Q89" t="s">
+        <v>12</v>
+      </c>
+      <c r="R89" t="s">
+        <v>2</v>
+      </c>
+      <c r="S89" t="s">
+        <v>67</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U89" s="2"/>
+      <c r="V89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="Q90" t="s">
+        <v>12</v>
+      </c>
+      <c r="R90" t="s">
+        <v>2</v>
+      </c>
+      <c r="S90" t="s">
+        <v>67</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U90" s="2"/>
+      <c r="V90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>10</v>
-      </c>
-      <c r="R84" t="s">
-        <v>2</v>
-      </c>
-      <c r="S84" t="s">
-        <v>71</v>
-      </c>
-      <c r="T84" s="3" t="s">
+      <c r="F91" s="7"/>
+      <c r="Q91" t="s">
+        <v>11</v>
+      </c>
+      <c r="R91" t="s">
+        <v>2</v>
+      </c>
+      <c r="S91" t="s">
+        <v>67</v>
+      </c>
+      <c r="T91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U84" s="3"/>
-      <c r="V84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="U91" s="2"/>
+      <c r="V91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>10</v>
-      </c>
-      <c r="R85" t="s">
-        <v>2</v>
-      </c>
-      <c r="S85" t="s">
-        <v>71</v>
-      </c>
-      <c r="T85" s="3" t="s">
+      <c r="F92" s="7"/>
+      <c r="Q92" t="s">
+        <v>11</v>
+      </c>
+      <c r="R92" t="s">
+        <v>2</v>
+      </c>
+      <c r="S92" t="s">
+        <v>67</v>
+      </c>
+      <c r="T92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U85" s="3"/>
-      <c r="V85" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>10</v>
-      </c>
-      <c r="R86" t="s">
-        <v>2</v>
-      </c>
-      <c r="S86" t="s">
-        <v>71</v>
-      </c>
-      <c r="T86" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="U86" s="3"/>
-      <c r="V86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s">
-        <v>71</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="U92" s="2"/>
+      <c r="V92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>10</v>
-      </c>
-      <c r="R87" t="s">
-        <v>2</v>
-      </c>
-      <c r="S87" t="s">
-        <v>71</v>
-      </c>
-      <c r="T87" s="3" t="s">
+      <c r="F93" s="7"/>
+      <c r="Q93" t="s">
+        <v>11</v>
+      </c>
+      <c r="R93" t="s">
+        <v>2</v>
+      </c>
+      <c r="S93" t="s">
+        <v>67</v>
+      </c>
+      <c r="T93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U87" s="3"/>
-      <c r="V87" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s">
-        <v>71</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>10</v>
-      </c>
-      <c r="R88" t="s">
-        <v>2</v>
-      </c>
-      <c r="S88" t="s">
-        <v>71</v>
-      </c>
-      <c r="T88" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="U88" s="3"/>
-      <c r="V88" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s">
-        <v>71</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F89" s="3"/>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>12</v>
-      </c>
-      <c r="R89" t="s">
-        <v>2</v>
-      </c>
-      <c r="S89" t="s">
-        <v>71</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="U89" s="3"/>
-      <c r="V89" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s">
-        <v>71</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="U93" s="2"/>
+      <c r="V93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>12</v>
-      </c>
-      <c r="R90" t="s">
-        <v>2</v>
-      </c>
-      <c r="S90" t="s">
-        <v>71</v>
-      </c>
-      <c r="T90" s="3" t="s">
+      <c r="F94" s="7"/>
+      <c r="Q94" t="s">
+        <v>11</v>
+      </c>
+      <c r="R94" t="s">
+        <v>2</v>
+      </c>
+      <c r="S94" t="s">
+        <v>67</v>
+      </c>
+      <c r="T94" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U90" s="3"/>
-      <c r="V90" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B91" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s">
-        <v>71</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>11</v>
-      </c>
-      <c r="R91" t="s">
-        <v>2</v>
-      </c>
-      <c r="S91" t="s">
-        <v>71</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="U91" s="3"/>
-      <c r="V91" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B92" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s">
-        <v>71</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>11</v>
-      </c>
-      <c r="R92" t="s">
-        <v>2</v>
-      </c>
-      <c r="S92" t="s">
-        <v>71</v>
-      </c>
-      <c r="T92" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U92" s="3"/>
-      <c r="V92" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B93" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>11</v>
-      </c>
-      <c r="R93" t="s">
-        <v>2</v>
-      </c>
-      <c r="S93" t="s">
-        <v>71</v>
-      </c>
-      <c r="T93" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U93" s="3"/>
-      <c r="V93" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>11</v>
-      </c>
-      <c r="R94" t="s">
-        <v>2</v>
-      </c>
-      <c r="S94" t="s">
-        <v>71</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U94" s="3"/>
+      <c r="U94" s="2"/>
       <c r="V94" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
-      <c r="D95" t="s">
-        <v>71</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F95" s="3"/>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
+      <c r="D95" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" s="7"/>
       <c r="Q95" t="s">
         <v>11</v>
       </c>
@@ -3614,33 +3469,30 @@
         <v>2</v>
       </c>
       <c r="S95" t="s">
-        <v>71</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="U95" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U95" s="2"/>
       <c r="V95" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>11</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
-      <c r="D96" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F96" s="3"/>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
+      <c r="D96" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" s="7"/>
       <c r="Q96" t="s">
         <v>11</v>
       </c>
@@ -3648,17 +3500,17 @@
         <v>2</v>
       </c>
       <c r="S96" t="s">
-        <v>71</v>
-      </c>
-      <c r="T96" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U96" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U96" s="2"/>
       <c r="V96" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>26</v>
       </c>
@@ -3666,20 +3518,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>27</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D100" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="D100" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="3"/>
+      <c r="F100" s="2"/>
       <c r="Q100" t="s">
         <v>27</v>
       </c>
@@ -3689,25 +3541,25 @@
       <c r="S100" t="s">
         <v>3</v>
       </c>
-      <c r="T100" s="3" t="s">
+      <c r="T100" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U100" s="3"/>
-    </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U100" s="2"/>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>27</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D101" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="D101" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="2"/>
       <c r="Q101" t="s">
         <v>27</v>
       </c>
@@ -3717,25 +3569,25 @@
       <c r="S101" t="s">
         <v>3</v>
       </c>
-      <c r="T101" s="3" t="s">
+      <c r="T101" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U101" s="3"/>
-    </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U101" s="2"/>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>27</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D102" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="D102" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F102" s="3"/>
+      <c r="F102" s="2"/>
       <c r="Q102" t="s">
         <v>27</v>
       </c>
@@ -3745,25 +3597,25 @@
       <c r="S102" t="s">
         <v>3</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="T102" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U102" s="3"/>
-    </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U102" s="2"/>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>27</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="D103" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="2"/>
       <c r="Q103" t="s">
         <v>27</v>
       </c>
@@ -3773,25 +3625,25 @@
       <c r="S103" t="s">
         <v>3</v>
       </c>
-      <c r="T103" s="3" t="s">
+      <c r="T103" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U103" s="3"/>
-    </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="U103" s="2"/>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>27</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D104" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F104" s="3"/>
+      <c r="D104" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F104" s="2"/>
       <c r="Q104" t="s">
         <v>27</v>
       </c>
@@ -3801,12 +3653,12 @@
       <c r="S104" t="s">
         <v>3</v>
       </c>
-      <c r="T104" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U104" s="3"/>
-    </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="T104" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U104" s="2"/>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>27</v>
       </c>
@@ -3832,106 +3684,77 @@
         <v>4</v>
       </c>
     </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D108" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="184">
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="T103:U103"/>
-    <mergeCell ref="T104:U104"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="T94:U94"/>
-    <mergeCell ref="T95:U95"/>
-    <mergeCell ref="T96:U96"/>
-    <mergeCell ref="T100:U100"/>
-    <mergeCell ref="T101:U101"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="T89:U89"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
+  <mergeCells count="186">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="E100:F100"/>
     <mergeCell ref="E101:F101"/>
@@ -3956,68 +3779,104 @@
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="T89:U89"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="T103:U103"/>
+    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="T93:U93"/>
+    <mergeCell ref="T94:U94"/>
+    <mergeCell ref="T95:U95"/>
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="T100:U100"/>
+    <mergeCell ref="T101:U101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/새하 오민.xlsx
+++ b/새하 오민.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skku0-my.sharepoint.com/personal/k0712023_skku_edu/Documents/바탕 화면/SKKU/S hero/workspace/Cyber_Tech_Friend Freelancer/Mold Controller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_87B3FBCBEF94B5B3ADC5EE85377BAFD8EFB52108" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D3DEF3CA-4B2E-4B4C-8E46-7AB189932E9A}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_87B3FBCBEF94B5B3ADC5EE85377BAFD8EFB52108" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7583EE12-039B-457C-B81F-703FBD0AEF7D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="103">
   <si>
     <t>PUB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,26 +490,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -917,11 +917,11 @@
       <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -933,10 +933,10 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="G3" t="s">
         <v>4</v>
       </c>
@@ -949,10 +949,10 @@
       <c r="S3" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -964,10 +964,10 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>4</v>
       </c>
@@ -980,10 +980,10 @@
       <c r="S4" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="2"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -995,10 +995,10 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
       <c r="G5" t="s">
         <v>4</v>
       </c>
@@ -1011,10 +1011,10 @@
       <c r="S5" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -1026,10 +1026,10 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
       <c r="G6" t="s">
         <v>4</v>
       </c>
@@ -1042,16 +1042,16 @@
       <c r="S6" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="2"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -1063,10 +1063,10 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
       <c r="G8" t="s">
         <v>4</v>
       </c>
@@ -1079,16 +1079,16 @@
       <c r="S8" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="2"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -1100,10 +1100,10 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -1116,10 +1116,10 @@
       <c r="S10" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="U10" s="2"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -1131,10 +1131,10 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" t="s">
         <v>4</v>
       </c>
@@ -1147,10 +1147,10 @@
       <c r="S11" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="2"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -1162,10 +1162,10 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" t="s">
         <v>4</v>
       </c>
@@ -1178,10 +1178,10 @@
       <c r="S12" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="U12" s="2"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -1193,10 +1193,10 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="G13" t="s">
         <v>4</v>
       </c>
@@ -1209,10 +1209,10 @@
       <c r="S13" t="s">
         <v>3</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="U13" s="2"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -1224,10 +1224,10 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
       <c r="G14" t="s">
         <v>4</v>
       </c>
@@ -1240,16 +1240,16 @@
       <c r="S14" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="2"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -1261,10 +1261,10 @@
       <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="G16" t="s">
         <v>4</v>
       </c>
@@ -1277,16 +1277,16 @@
       <c r="S16" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U16" s="2"/>
+      <c r="U16" s="6"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -1298,10 +1298,10 @@
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18" t="s">
         <v>4</v>
       </c>
@@ -1314,10 +1314,10 @@
       <c r="S18" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U18" s="2"/>
+      <c r="U18" s="6"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
@@ -1331,10 +1331,10 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
       <c r="F20" t="s">
         <v>15</v>
       </c>
@@ -1344,10 +1344,10 @@
       <c r="R20" t="s">
         <v>13</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T20" s="2"/>
+      <c r="T20" s="6"/>
       <c r="U20" t="s">
         <v>15</v>
       </c>
@@ -1359,10 +1359,10 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
       <c r="F21" t="s">
         <v>16</v>
       </c>
@@ -1372,10 +1372,10 @@
       <c r="R21" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T21" s="2"/>
+      <c r="T21" s="6"/>
       <c r="U21" t="s">
         <v>16</v>
       </c>
@@ -1387,10 +1387,10 @@
       <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
       <c r="F22" t="s">
         <v>17</v>
       </c>
@@ -1400,10 +1400,10 @@
       <c r="R22" t="s">
         <v>13</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T22" s="2"/>
+      <c r="T22" s="6"/>
       <c r="U22" t="s">
         <v>17</v>
       </c>
@@ -1415,10 +1415,10 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
       <c r="F23" t="s">
         <v>18</v>
       </c>
@@ -1428,10 +1428,10 @@
       <c r="R23" t="s">
         <v>13</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="T23" s="2"/>
+      <c r="T23" s="6"/>
       <c r="U23" t="s">
         <v>18</v>
       </c>
@@ -1443,10 +1443,10 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="4"/>
       <c r="F24" t="s">
         <v>19</v>
       </c>
@@ -1456,10 +1456,10 @@
       <c r="R24" t="s">
         <v>13</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T24" s="2"/>
+      <c r="T24" s="6"/>
       <c r="U24" t="s">
         <v>19</v>
       </c>
@@ -1471,10 +1471,10 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
       <c r="F25" t="s">
         <v>20</v>
       </c>
@@ -1484,10 +1484,10 @@
       <c r="R25" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T25" s="2"/>
+      <c r="T25" s="6"/>
       <c r="U25" t="s">
         <v>20</v>
       </c>
@@ -1499,10 +1499,10 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="4"/>
       <c r="F26" t="s">
         <v>15</v>
       </c>
@@ -1512,10 +1512,10 @@
       <c r="R26" t="s">
         <v>13</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="T26" s="2"/>
+      <c r="T26" s="6"/>
       <c r="U26" t="s">
         <v>15</v>
       </c>
@@ -1527,23 +1527,27 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4"/>
       <c r="F27" t="s">
         <v>16</v>
       </c>
+      <c r="J27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="4"/>
       <c r="Q27" t="s">
         <v>12</v>
       </c>
       <c r="R27" t="s">
         <v>13</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="T27" s="2"/>
+      <c r="T27" s="6"/>
       <c r="U27" t="s">
         <v>16</v>
       </c>
@@ -1555,23 +1559,27 @@
       <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="4"/>
       <c r="F28" t="s">
         <v>17</v>
       </c>
+      <c r="J28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="4"/>
       <c r="Q28" t="s">
         <v>12</v>
       </c>
       <c r="R28" t="s">
         <v>13</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="2"/>
+      <c r="T28" s="6"/>
       <c r="U28" t="s">
         <v>17</v>
       </c>
@@ -1583,23 +1591,27 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="4"/>
       <c r="F29" t="s">
         <v>18</v>
       </c>
+      <c r="J29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="4"/>
       <c r="Q29" t="s">
         <v>12</v>
       </c>
       <c r="R29" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="T29" s="2"/>
+      <c r="T29" s="6"/>
       <c r="U29" t="s">
         <v>18</v>
       </c>
@@ -1611,23 +1623,27 @@
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="4"/>
       <c r="F30" t="s">
         <v>19</v>
       </c>
+      <c r="J30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="3"/>
       <c r="Q30" t="s">
         <v>12</v>
       </c>
       <c r="R30" t="s">
         <v>13</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="S30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T30" s="2"/>
+      <c r="T30" s="6"/>
       <c r="U30" t="s">
         <v>19</v>
       </c>
@@ -1639,27 +1655,43 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="4"/>
       <c r="F31" t="s">
         <v>20</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="3"/>
       <c r="Q31" t="s">
         <v>12</v>
       </c>
       <c r="R31" t="s">
         <v>13</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="T31" s="2"/>
+      <c r="T31" s="6"/>
       <c r="U31" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="J33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>10</v>
@@ -1670,10 +1702,10 @@
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="3"/>
       <c r="Q34" t="s">
         <v>10</v>
       </c>
@@ -1683,10 +1715,10 @@
       <c r="S34" t="s">
         <v>14</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="T34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="3"/>
+      <c r="U34" s="8"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
@@ -1698,10 +1730,10 @@
       <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="3"/>
       <c r="Q35" t="s">
         <v>10</v>
       </c>
@@ -1711,10 +1743,10 @@
       <c r="S35" t="s">
         <v>14</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="T35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="U35" s="3"/>
+      <c r="U35" s="8"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
@@ -1726,14 +1758,14 @@
       <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="3"/>
       <c r="Q36" t="s">
         <v>10</v>
       </c>
@@ -1743,10 +1775,10 @@
       <c r="S36" t="s">
         <v>14</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="T36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="U36" s="3"/>
+      <c r="U36" s="8"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
@@ -1758,14 +1790,14 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="3"/>
       <c r="Q37" t="s">
         <v>10</v>
       </c>
@@ -1775,10 +1807,10 @@
       <c r="S37" t="s">
         <v>14</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U37" s="3"/>
+      <c r="U37" s="8"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
@@ -1790,10 +1822,10 @@
       <c r="D38" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="3"/>
       <c r="Q38" t="s">
         <v>12</v>
       </c>
@@ -1803,10 +1835,10 @@
       <c r="S38" t="s">
         <v>14</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="T38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="U38" s="3"/>
+      <c r="U38" s="8"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
@@ -1818,10 +1850,10 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="3"/>
       <c r="Q39" t="s">
         <v>12</v>
       </c>
@@ -1831,10 +1863,10 @@
       <c r="S39" t="s">
         <v>14</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="T39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U39" s="3"/>
+      <c r="U39" s="8"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
@@ -1846,10 +1878,10 @@
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="3"/>
       <c r="Q40" t="s">
         <v>12</v>
       </c>
@@ -1859,10 +1891,10 @@
       <c r="S40" t="s">
         <v>14</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="T40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U40" s="3"/>
+      <c r="U40" s="8"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
@@ -1874,10 +1906,10 @@
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="3"/>
       <c r="Q41" t="s">
         <v>12</v>
       </c>
@@ -1887,10 +1919,10 @@
       <c r="S41" t="s">
         <v>14</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="T41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U41" s="3"/>
+      <c r="U41" s="8"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
@@ -1902,10 +1934,10 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="6"/>
+      <c r="F42" s="3"/>
       <c r="Q42" t="s">
         <v>12</v>
       </c>
@@ -1915,10 +1947,10 @@
       <c r="S42" t="s">
         <v>14</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="T42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="U42" s="3"/>
+      <c r="U42" s="8"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
@@ -1930,10 +1962,10 @@
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="3"/>
       <c r="Q43" t="s">
         <v>12</v>
       </c>
@@ -1943,10 +1975,10 @@
       <c r="S43" t="s">
         <v>14</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="T43" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="U43" s="3"/>
+      <c r="U43" s="8"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
@@ -1955,12 +1987,12 @@
       <c r="C45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="Q45" t="s">
         <v>31</v>
       </c>
@@ -1975,13 +2007,13 @@
       <c r="C47" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="5"/>
       <c r="G47" t="s">
         <v>23</v>
       </c>
@@ -1994,10 +2026,10 @@
       <c r="S47" t="s">
         <v>22</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="T47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U47" s="2"/>
+      <c r="U47" s="6"/>
       <c r="V47" t="s">
         <v>23</v>
       </c>
@@ -2009,13 +2041,13 @@
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="5"/>
       <c r="G48" t="s">
         <v>23</v>
       </c>
@@ -2031,10 +2063,10 @@
       <c r="S48" t="s">
         <v>22</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="T48" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U48" s="2"/>
+      <c r="U48" s="6"/>
       <c r="V48" t="s">
         <v>23</v>
       </c>
@@ -2046,13 +2078,13 @@
       <c r="C49" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="5"/>
       <c r="G49" t="s">
         <v>23</v>
       </c>
@@ -2065,10 +2097,10 @@
       <c r="S49" t="s">
         <v>22</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U49" s="2"/>
+      <c r="U49" s="6"/>
       <c r="V49" t="s">
         <v>23</v>
       </c>
@@ -2080,13 +2112,13 @@
       <c r="C50" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="5"/>
       <c r="G50" t="s">
         <v>23</v>
       </c>
@@ -2099,10 +2131,10 @@
       <c r="S50" t="s">
         <v>22</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="U50" s="2"/>
+      <c r="U50" s="6"/>
       <c r="V50" t="s">
         <v>23</v>
       </c>
@@ -2114,13 +2146,13 @@
       <c r="C51" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="5"/>
       <c r="G51" t="s">
         <v>23</v>
       </c>
@@ -2133,10 +2165,10 @@
       <c r="S51" t="s">
         <v>22</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U51" s="2"/>
+      <c r="U51" s="6"/>
       <c r="V51" t="s">
         <v>23</v>
       </c>
@@ -2148,13 +2180,13 @@
       <c r="C52" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="5"/>
       <c r="G52" t="s">
         <v>23</v>
       </c>
@@ -2167,10 +2199,10 @@
       <c r="S52" t="s">
         <v>22</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="T52" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U52" s="2"/>
+      <c r="U52" s="6"/>
       <c r="V52" t="s">
         <v>23</v>
       </c>
@@ -2182,13 +2214,13 @@
       <c r="C53" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="5"/>
       <c r="G53" t="s">
         <v>23</v>
       </c>
@@ -2201,10 +2233,10 @@
       <c r="S53" t="s">
         <v>22</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="T53" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="U53" s="2"/>
+      <c r="U53" s="6"/>
       <c r="V53" t="s">
         <v>23</v>
       </c>
@@ -2216,13 +2248,13 @@
       <c r="C54" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="5"/>
       <c r="G54" t="s">
         <v>23</v>
       </c>
@@ -2235,10 +2267,10 @@
       <c r="S54" t="s">
         <v>22</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="T54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="U54" s="2"/>
+      <c r="U54" s="6"/>
       <c r="V54" t="s">
         <v>23</v>
       </c>
@@ -2250,13 +2282,13 @@
       <c r="C55" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="5"/>
       <c r="G55" t="s">
         <v>23</v>
       </c>
@@ -2269,10 +2301,10 @@
       <c r="S55" t="s">
         <v>22</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="T55" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="U55" s="2"/>
+      <c r="U55" s="6"/>
       <c r="V55" t="s">
         <v>23</v>
       </c>
@@ -2284,13 +2316,13 @@
       <c r="C56" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F56" s="7"/>
+      <c r="F56" s="5"/>
       <c r="G56" t="s">
         <v>23</v>
       </c>
@@ -2303,10 +2335,10 @@
       <c r="S56" t="s">
         <v>22</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="T56" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="U56" s="2"/>
+      <c r="U56" s="6"/>
       <c r="V56" t="s">
         <v>23</v>
       </c>
@@ -2318,13 +2350,13 @@
       <c r="C57" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F57" s="7"/>
+      <c r="F57" s="5"/>
       <c r="G57" t="s">
         <v>23</v>
       </c>
@@ -2337,10 +2369,10 @@
       <c r="S57" t="s">
         <v>22</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="T57" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U57" s="2"/>
+      <c r="U57" s="6"/>
       <c r="V57" t="s">
         <v>23</v>
       </c>
@@ -2352,13 +2384,13 @@
       <c r="C58" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="5"/>
       <c r="G58" t="s">
         <v>23</v>
       </c>
@@ -2371,10 +2403,10 @@
       <c r="S58" t="s">
         <v>22</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="T58" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="U58" s="2"/>
+      <c r="U58" s="6"/>
       <c r="V58" t="s">
         <v>23</v>
       </c>
@@ -2386,13 +2418,13 @@
       <c r="C59" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="5"/>
       <c r="G59" t="s">
         <v>23</v>
       </c>
@@ -2405,10 +2437,10 @@
       <c r="S59" t="s">
         <v>22</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="T59" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="U59" s="2"/>
+      <c r="U59" s="6"/>
       <c r="V59" t="s">
         <v>23</v>
       </c>
@@ -2420,13 +2452,13 @@
       <c r="C60" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="7"/>
+      <c r="F60" s="5"/>
       <c r="G60" t="s">
         <v>23</v>
       </c>
@@ -2439,10 +2471,10 @@
       <c r="S60" t="s">
         <v>22</v>
       </c>
-      <c r="T60" s="2" t="s">
+      <c r="T60" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="U60" s="2"/>
+      <c r="U60" s="6"/>
       <c r="V60" t="s">
         <v>23</v>
       </c>
@@ -2454,13 +2486,13 @@
       <c r="C61" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="5"/>
       <c r="G61" t="s">
         <v>23</v>
       </c>
@@ -2473,10 +2505,10 @@
       <c r="S61" t="s">
         <v>22</v>
       </c>
-      <c r="T61" s="2" t="s">
+      <c r="T61" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="U61" s="2"/>
+      <c r="U61" s="6"/>
       <c r="V61" t="s">
         <v>23</v>
       </c>
@@ -2488,13 +2520,13 @@
       <c r="C62" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F62" s="7"/>
+      <c r="F62" s="5"/>
       <c r="G62" t="s">
         <v>23</v>
       </c>
@@ -2507,10 +2539,10 @@
       <c r="S62" t="s">
         <v>22</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="T62" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="U62" s="2"/>
+      <c r="U62" s="6"/>
       <c r="V62" t="s">
         <v>23</v>
       </c>
@@ -2522,13 +2554,13 @@
       <c r="C64" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="5"/>
       <c r="I64" t="s">
         <v>100</v>
       </c>
@@ -2541,10 +2573,10 @@
       <c r="S64" t="s">
         <v>25</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="T64" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U64" s="2"/>
+      <c r="U64" s="6"/>
       <c r="V64" t="s">
         <v>23</v>
       </c>
@@ -2556,13 +2588,13 @@
       <c r="C65" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="5"/>
       <c r="Q65" t="s">
         <v>10</v>
       </c>
@@ -2572,10 +2604,10 @@
       <c r="S65" t="s">
         <v>25</v>
       </c>
-      <c r="T65" s="2" t="s">
+      <c r="T65" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U65" s="2"/>
+      <c r="U65" s="6"/>
       <c r="V65" t="s">
         <v>23</v>
       </c>
@@ -2587,13 +2619,13 @@
       <c r="C66" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F66" s="7"/>
+      <c r="F66" s="5"/>
       <c r="Q66" t="s">
         <v>10</v>
       </c>
@@ -2603,10 +2635,10 @@
       <c r="S66" t="s">
         <v>25</v>
       </c>
-      <c r="T66" s="2" t="s">
+      <c r="T66" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U66" s="2"/>
+      <c r="U66" s="6"/>
       <c r="V66" t="s">
         <v>23</v>
       </c>
@@ -2618,13 +2650,13 @@
       <c r="C67" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F67" s="7"/>
+      <c r="F67" s="5"/>
       <c r="Q67" t="s">
         <v>10</v>
       </c>
@@ -2634,10 +2666,10 @@
       <c r="S67" t="s">
         <v>25</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="T67" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="U67" s="2"/>
+      <c r="U67" s="6"/>
       <c r="V67" t="s">
         <v>23</v>
       </c>
@@ -2649,13 +2681,13 @@
       <c r="C68" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F68" s="7"/>
+      <c r="F68" s="5"/>
       <c r="Q68" t="s">
         <v>10</v>
       </c>
@@ -2665,10 +2697,10 @@
       <c r="S68" t="s">
         <v>25</v>
       </c>
-      <c r="T68" s="2" t="s">
+      <c r="T68" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U68" s="2"/>
+      <c r="U68" s="6"/>
       <c r="V68" t="s">
         <v>23</v>
       </c>
@@ -2680,13 +2712,13 @@
       <c r="C69" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F69" s="7"/>
+      <c r="F69" s="5"/>
       <c r="Q69" t="s">
         <v>10</v>
       </c>
@@ -2696,10 +2728,10 @@
       <c r="S69" t="s">
         <v>25</v>
       </c>
-      <c r="T69" s="2" t="s">
+      <c r="T69" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U69" s="2"/>
+      <c r="U69" s="6"/>
       <c r="V69" t="s">
         <v>23</v>
       </c>
@@ -2711,13 +2743,13 @@
       <c r="C70" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="7"/>
+      <c r="F70" s="5"/>
       <c r="Q70" t="s">
         <v>10</v>
       </c>
@@ -2727,10 +2759,10 @@
       <c r="S70" t="s">
         <v>25</v>
       </c>
-      <c r="T70" s="2" t="s">
+      <c r="T70" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="U70" s="2"/>
+      <c r="U70" s="6"/>
       <c r="V70" t="s">
         <v>23</v>
       </c>
@@ -2742,13 +2774,13 @@
       <c r="C71" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F71" s="7"/>
+      <c r="F71" s="5"/>
       <c r="Q71" t="s">
         <v>10</v>
       </c>
@@ -2758,10 +2790,10 @@
       <c r="S71" t="s">
         <v>25</v>
       </c>
-      <c r="T71" s="2" t="s">
+      <c r="T71" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="U71" s="2"/>
+      <c r="U71" s="6"/>
       <c r="V71" t="s">
         <v>23</v>
       </c>
@@ -2773,13 +2805,13 @@
       <c r="C72" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F72" s="7"/>
+      <c r="F72" s="5"/>
       <c r="Q72" t="s">
         <v>12</v>
       </c>
@@ -2789,10 +2821,10 @@
       <c r="S72" t="s">
         <v>25</v>
       </c>
-      <c r="T72" s="2" t="s">
+      <c r="T72" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="U72" s="2"/>
+      <c r="U72" s="6"/>
       <c r="V72" t="s">
         <v>23</v>
       </c>
@@ -2804,13 +2836,13 @@
       <c r="C73" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F73" s="7"/>
+      <c r="F73" s="5"/>
       <c r="Q73" t="s">
         <v>12</v>
       </c>
@@ -2820,10 +2852,10 @@
       <c r="S73" t="s">
         <v>25</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="T73" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="U73" s="2"/>
+      <c r="U73" s="6"/>
       <c r="V73" t="s">
         <v>23</v>
       </c>
@@ -2835,13 +2867,13 @@
       <c r="C74" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="7"/>
+      <c r="F74" s="5"/>
       <c r="Q74" t="s">
         <v>11</v>
       </c>
@@ -2851,10 +2883,10 @@
       <c r="S74" t="s">
         <v>25</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="T74" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="U74" s="2"/>
+      <c r="U74" s="6"/>
       <c r="V74" t="s">
         <v>23</v>
       </c>
@@ -2866,13 +2898,13 @@
       <c r="C75" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="7"/>
+      <c r="F75" s="5"/>
       <c r="Q75" t="s">
         <v>11</v>
       </c>
@@ -2882,10 +2914,10 @@
       <c r="S75" t="s">
         <v>25</v>
       </c>
-      <c r="T75" s="2" t="s">
+      <c r="T75" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="U75" s="2"/>
+      <c r="U75" s="6"/>
       <c r="V75" t="s">
         <v>23</v>
       </c>
@@ -2897,13 +2929,13 @@
       <c r="C76" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F76" s="7"/>
+      <c r="F76" s="5"/>
       <c r="Q76" t="s">
         <v>11</v>
       </c>
@@ -2913,10 +2945,10 @@
       <c r="S76" t="s">
         <v>25</v>
       </c>
-      <c r="T76" s="2" t="s">
+      <c r="T76" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="U76" s="2"/>
+      <c r="U76" s="6"/>
       <c r="V76" t="s">
         <v>23</v>
       </c>
@@ -2928,13 +2960,13 @@
       <c r="C77" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="7"/>
+      <c r="F77" s="5"/>
       <c r="Q77" t="s">
         <v>11</v>
       </c>
@@ -2944,10 +2976,10 @@
       <c r="S77" t="s">
         <v>25</v>
       </c>
-      <c r="T77" s="2" t="s">
+      <c r="T77" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="U77" s="2"/>
+      <c r="U77" s="6"/>
       <c r="V77" t="s">
         <v>23</v>
       </c>
@@ -2959,13 +2991,13 @@
       <c r="C78" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="5"/>
       <c r="Q78" t="s">
         <v>11</v>
       </c>
@@ -2975,10 +3007,10 @@
       <c r="S78" t="s">
         <v>25</v>
       </c>
-      <c r="T78" s="2" t="s">
+      <c r="T78" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="U78" s="2"/>
+      <c r="U78" s="6"/>
       <c r="V78" t="s">
         <v>23</v>
       </c>
@@ -2990,13 +3022,13 @@
       <c r="C79" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F79" s="7"/>
+      <c r="F79" s="5"/>
       <c r="Q79" t="s">
         <v>11</v>
       </c>
@@ -3006,10 +3038,10 @@
       <c r="S79" t="s">
         <v>25</v>
       </c>
-      <c r="T79" s="2" t="s">
+      <c r="T79" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="U79" s="2"/>
+      <c r="U79" s="6"/>
       <c r="V79" t="s">
         <v>23</v>
       </c>
@@ -3021,13 +3053,13 @@
       <c r="C81" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="7"/>
+      <c r="F81" s="5"/>
       <c r="Q81" t="s">
         <v>10</v>
       </c>
@@ -3037,10 +3069,10 @@
       <c r="S81" t="s">
         <v>67</v>
       </c>
-      <c r="T81" s="2" t="s">
+      <c r="T81" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U81" s="2"/>
+      <c r="U81" s="6"/>
       <c r="V81" t="s">
         <v>23</v>
       </c>
@@ -3052,13 +3084,13 @@
       <c r="C82" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="7"/>
+      <c r="F82" s="5"/>
       <c r="Q82" t="s">
         <v>10</v>
       </c>
@@ -3068,10 +3100,10 @@
       <c r="S82" t="s">
         <v>67</v>
       </c>
-      <c r="T82" s="2" t="s">
+      <c r="T82" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U82" s="2"/>
+      <c r="U82" s="6"/>
       <c r="V82" t="s">
         <v>23</v>
       </c>
@@ -3083,13 +3115,13 @@
       <c r="C83" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F83" s="7"/>
+      <c r="F83" s="5"/>
       <c r="Q83" t="s">
         <v>10</v>
       </c>
@@ -3099,10 +3131,10 @@
       <c r="S83" t="s">
         <v>67</v>
       </c>
-      <c r="T83" s="2" t="s">
+      <c r="T83" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U83" s="2"/>
+      <c r="U83" s="6"/>
       <c r="V83" t="s">
         <v>23</v>
       </c>
@@ -3114,13 +3146,13 @@
       <c r="C84" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="5"/>
       <c r="Q84" t="s">
         <v>10</v>
       </c>
@@ -3130,10 +3162,10 @@
       <c r="S84" t="s">
         <v>67</v>
       </c>
-      <c r="T84" s="2" t="s">
+      <c r="T84" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="U84" s="2"/>
+      <c r="U84" s="6"/>
       <c r="V84" t="s">
         <v>23</v>
       </c>
@@ -3145,13 +3177,13 @@
       <c r="C85" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="7"/>
+      <c r="F85" s="5"/>
       <c r="Q85" t="s">
         <v>10</v>
       </c>
@@ -3161,10 +3193,10 @@
       <c r="S85" t="s">
         <v>67</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="T85" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U85" s="2"/>
+      <c r="U85" s="6"/>
       <c r="V85" t="s">
         <v>23</v>
       </c>
@@ -3176,13 +3208,13 @@
       <c r="C86" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F86" s="7"/>
+      <c r="F86" s="5"/>
       <c r="Q86" t="s">
         <v>10</v>
       </c>
@@ -3192,10 +3224,10 @@
       <c r="S86" t="s">
         <v>67</v>
       </c>
-      <c r="T86" s="2" t="s">
+      <c r="T86" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U86" s="2"/>
+      <c r="U86" s="6"/>
       <c r="V86" t="s">
         <v>23</v>
       </c>
@@ -3207,13 +3239,13 @@
       <c r="C87" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="7"/>
+      <c r="F87" s="5"/>
       <c r="Q87" t="s">
         <v>10</v>
       </c>
@@ -3223,10 +3255,10 @@
       <c r="S87" t="s">
         <v>67</v>
       </c>
-      <c r="T87" s="2" t="s">
+      <c r="T87" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="U87" s="2"/>
+      <c r="U87" s="6"/>
       <c r="V87" t="s">
         <v>23</v>
       </c>
@@ -3238,13 +3270,13 @@
       <c r="C88" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F88" s="7"/>
+      <c r="F88" s="5"/>
       <c r="Q88" t="s">
         <v>10</v>
       </c>
@@ -3254,10 +3286,10 @@
       <c r="S88" t="s">
         <v>67</v>
       </c>
-      <c r="T88" s="2" t="s">
+      <c r="T88" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="U88" s="2"/>
+      <c r="U88" s="6"/>
       <c r="V88" t="s">
         <v>23</v>
       </c>
@@ -3269,13 +3301,13 @@
       <c r="C89" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="7"/>
+      <c r="F89" s="5"/>
       <c r="Q89" t="s">
         <v>12</v>
       </c>
@@ -3285,10 +3317,10 @@
       <c r="S89" t="s">
         <v>67</v>
       </c>
-      <c r="T89" s="2" t="s">
+      <c r="T89" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="U89" s="2"/>
+      <c r="U89" s="6"/>
       <c r="V89" t="s">
         <v>23</v>
       </c>
@@ -3300,13 +3332,13 @@
       <c r="C90" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F90" s="7"/>
+      <c r="F90" s="5"/>
       <c r="Q90" t="s">
         <v>12</v>
       </c>
@@ -3316,10 +3348,10 @@
       <c r="S90" t="s">
         <v>67</v>
       </c>
-      <c r="T90" s="2" t="s">
+      <c r="T90" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="U90" s="2"/>
+      <c r="U90" s="6"/>
       <c r="V90" t="s">
         <v>23</v>
       </c>
@@ -3331,13 +3363,13 @@
       <c r="C91" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F91" s="7"/>
+      <c r="F91" s="5"/>
       <c r="Q91" t="s">
         <v>11</v>
       </c>
@@ -3347,10 +3379,10 @@
       <c r="S91" t="s">
         <v>67</v>
       </c>
-      <c r="T91" s="2" t="s">
+      <c r="T91" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="U91" s="2"/>
+      <c r="U91" s="6"/>
       <c r="V91" t="s">
         <v>23</v>
       </c>
@@ -3362,13 +3394,13 @@
       <c r="C92" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F92" s="7"/>
+      <c r="F92" s="5"/>
       <c r="Q92" t="s">
         <v>11</v>
       </c>
@@ -3378,10 +3410,10 @@
       <c r="S92" t="s">
         <v>67</v>
       </c>
-      <c r="T92" s="2" t="s">
+      <c r="T92" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="U92" s="2"/>
+      <c r="U92" s="6"/>
       <c r="V92" t="s">
         <v>23</v>
       </c>
@@ -3393,13 +3425,13 @@
       <c r="C93" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F93" s="7"/>
+      <c r="F93" s="5"/>
       <c r="Q93" t="s">
         <v>11</v>
       </c>
@@ -3409,10 +3441,10 @@
       <c r="S93" t="s">
         <v>67</v>
       </c>
-      <c r="T93" s="2" t="s">
+      <c r="T93" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="U93" s="2"/>
+      <c r="U93" s="6"/>
       <c r="V93" t="s">
         <v>23</v>
       </c>
@@ -3424,13 +3456,13 @@
       <c r="C94" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F94" s="7"/>
+      <c r="F94" s="5"/>
       <c r="Q94" t="s">
         <v>11</v>
       </c>
@@ -3440,10 +3472,10 @@
       <c r="S94" t="s">
         <v>67</v>
       </c>
-      <c r="T94" s="2" t="s">
+      <c r="T94" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="U94" s="2"/>
+      <c r="U94" s="6"/>
       <c r="V94" t="s">
         <v>23</v>
       </c>
@@ -3455,13 +3487,13 @@
       <c r="C95" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F95" s="7"/>
+      <c r="F95" s="5"/>
       <c r="Q95" t="s">
         <v>11</v>
       </c>
@@ -3471,10 +3503,10 @@
       <c r="S95" t="s">
         <v>67</v>
       </c>
-      <c r="T95" s="2" t="s">
+      <c r="T95" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="U95" s="2"/>
+      <c r="U95" s="6"/>
       <c r="V95" t="s">
         <v>23</v>
       </c>
@@ -3486,13 +3518,13 @@
       <c r="C96" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F96" s="7"/>
+      <c r="F96" s="5"/>
       <c r="Q96" t="s">
         <v>11</v>
       </c>
@@ -3502,10 +3534,10 @@
       <c r="S96" t="s">
         <v>67</v>
       </c>
-      <c r="T96" s="2" t="s">
+      <c r="T96" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="U96" s="2"/>
+      <c r="U96" s="6"/>
       <c r="V96" t="s">
         <v>23</v>
       </c>
@@ -3522,16 +3554,16 @@
       <c r="B100" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" s="6"/>
       <c r="Q100" t="s">
         <v>27</v>
       </c>
@@ -3541,25 +3573,25 @@
       <c r="S100" t="s">
         <v>3</v>
       </c>
-      <c r="T100" s="2" t="s">
+      <c r="T100" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U100" s="2"/>
+      <c r="U100" s="6"/>
     </row>
     <row r="101" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F101" s="2"/>
+      <c r="F101" s="6"/>
       <c r="Q101" t="s">
         <v>27</v>
       </c>
@@ -3569,25 +3601,25 @@
       <c r="S101" t="s">
         <v>3</v>
       </c>
-      <c r="T101" s="2" t="s">
+      <c r="T101" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U101" s="2"/>
+      <c r="U101" s="6"/>
     </row>
     <row r="102" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F102" s="2"/>
+      <c r="F102" s="6"/>
       <c r="Q102" t="s">
         <v>27</v>
       </c>
@@ -3597,25 +3629,25 @@
       <c r="S102" t="s">
         <v>3</v>
       </c>
-      <c r="T102" s="2" t="s">
+      <c r="T102" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U102" s="2"/>
+      <c r="U102" s="6"/>
     </row>
     <row r="103" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F103" s="2"/>
+      <c r="F103" s="6"/>
       <c r="Q103" t="s">
         <v>27</v>
       </c>
@@ -3625,25 +3657,25 @@
       <c r="S103" t="s">
         <v>3</v>
       </c>
-      <c r="T103" s="2" t="s">
+      <c r="T103" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U103" s="2"/>
+      <c r="U103" s="6"/>
     </row>
     <row r="104" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F104" s="2"/>
+      <c r="F104" s="6"/>
       <c r="Q104" t="s">
         <v>27</v>
       </c>
@@ -3653,10 +3685,10 @@
       <c r="S104" t="s">
         <v>3</v>
       </c>
-      <c r="T104" s="2" t="s">
+      <c r="T104" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U104" s="2"/>
+      <c r="U104" s="6"/>
     </row>
     <row r="106" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
@@ -3685,12 +3717,181 @@
       </c>
     </row>
     <row r="108" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="2" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="186">
+  <mergeCells count="193">
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="T103:U103"/>
+    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="T93:U93"/>
+    <mergeCell ref="T94:U94"/>
+    <mergeCell ref="T95:U95"/>
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="T100:U100"/>
+    <mergeCell ref="T101:U101"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="T89:U89"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="E9:F9"/>
@@ -3715,168 +3916,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="T89:U89"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="T103:U103"/>
-    <mergeCell ref="T104:U104"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="T94:U94"/>
-    <mergeCell ref="T95:U95"/>
-    <mergeCell ref="T96:U96"/>
-    <mergeCell ref="T100:U100"/>
-    <mergeCell ref="T101:U101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
